--- a/monthly_expenses.xlsx
+++ b/monthly_expenses.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5034</v>
+        <v>5534</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9264</v>
+        <v>9564</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_expenses.xlsx
+++ b/monthly_expenses.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5534</v>
+        <v>5022</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9564</v>
+        <v>9230</v>
       </c>
     </row>
   </sheetData>
